--- a/Tool/ExeclToScript/Work/TransXlsxTable/ItemCell.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/ItemCell.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>ItemID</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Array&lt;Number&gt;</t>
-  </si>
-  <si>
-    <t>Array&lt;Object{k:Number,v:Number}&gt;</t>
   </si>
   <si>
     <t>客户端类型</t>
@@ -759,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,13 +767,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1095,7 +1086,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I10:I11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1116,16 +1107,16 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1139,16 +1130,16 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1162,200 +1153,200 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>9999</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4">
         <v>9999</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
         <v>9999</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4">
         <v>9999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/ItemCell.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/ItemCell.xlsx
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1194,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -1217,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1240,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -1332,7 +1332,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
